--- a/data/Aradas/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/Aradas/archetypes/pop_archetypes_citizen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Aradas\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s3\Aradas\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F64A0B-8EF5-42C0-B8BD-EA4051DE49E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45890048-4892-4F2C-B0EA-B64B4F03AF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,7 +217,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +242,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -255,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -268,6 +274,7 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,7 +558,7 @@
   <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="184" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2:AJ6"/>
+      <selection activeCell="AF11" sqref="AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,10 +684,10 @@
       <c r="AD1" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="12" t="s">
         <v>36</v>
       </c>
       <c r="AG1" t="s">
@@ -689,10 +696,10 @@
       <c r="AH1" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>38</v>
       </c>
       <c r="AK1" t="s">
@@ -795,11 +802,13 @@
       <c r="AD2" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AE2" s="7">
-        <v>1215</v>
-      </c>
-      <c r="AF2" s="7">
-        <v>1156.5999999999999</v>
+      <c r="AE2" s="12">
+        <f>1215*0.935</f>
+        <v>1136.0250000000001</v>
+      </c>
+      <c r="AF2" s="12">
+        <f>1156.6*0.935</f>
+        <v>1081.421</v>
       </c>
       <c r="AG2" s="7">
         <v>0</v>
@@ -807,11 +816,13 @@
       <c r="AH2" s="7">
         <v>99999</v>
       </c>
-      <c r="AI2" s="7">
-        <v>1872</v>
-      </c>
-      <c r="AJ2" s="7">
-        <v>1182</v>
+      <c r="AI2" s="12">
+        <f>1872*0.935</f>
+        <v>1750.3200000000002</v>
+      </c>
+      <c r="AJ2" s="12">
+        <f>1182*0.935</f>
+        <v>1105.17</v>
       </c>
       <c r="AK2" s="7">
         <v>0</v>
@@ -913,11 +924,13 @@
       <c r="AD3" s="10">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AE3" s="7">
-        <v>1215</v>
-      </c>
-      <c r="AF3" s="7">
-        <v>1156.5999999999999</v>
+      <c r="AE3" s="12">
+        <f>1215*0.935</f>
+        <v>1136.0250000000001</v>
+      </c>
+      <c r="AF3" s="12">
+        <f>1156.6*0.935</f>
+        <v>1081.421</v>
       </c>
       <c r="AG3" s="7">
         <v>0</v>
@@ -925,11 +938,13 @@
       <c r="AH3" s="7">
         <v>99999</v>
       </c>
-      <c r="AI3" s="7">
-        <v>1872</v>
-      </c>
-      <c r="AJ3" s="7">
-        <v>1182</v>
+      <c r="AI3" s="12">
+        <f>1872*0.935</f>
+        <v>1750.3200000000002</v>
+      </c>
+      <c r="AJ3" s="12">
+        <f>1182*0.935</f>
+        <v>1105.17</v>
       </c>
       <c r="AK3" s="7">
         <v>0</v>
@@ -1029,11 +1044,13 @@
       <c r="AD4" s="10">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AE4" s="7">
-        <v>2708</v>
-      </c>
-      <c r="AF4" s="7">
-        <v>1156.5999999999999</v>
+      <c r="AE4" s="12">
+        <f>2708*0.935</f>
+        <v>2531.98</v>
+      </c>
+      <c r="AF4" s="12">
+        <f>1156.6*0.935</f>
+        <v>1081.421</v>
       </c>
       <c r="AG4" s="7">
         <v>0</v>
@@ -1041,11 +1058,13 @@
       <c r="AH4" s="7">
         <v>99999</v>
       </c>
-      <c r="AI4" s="7">
-        <v>1872</v>
-      </c>
-      <c r="AJ4" s="7">
-        <v>1182</v>
+      <c r="AI4" s="12">
+        <f>1872*0.935</f>
+        <v>1750.3200000000002</v>
+      </c>
+      <c r="AJ4" s="12">
+        <f>1182*0.935</f>
+        <v>1105.17</v>
       </c>
       <c r="AK4" s="7">
         <v>0</v>
@@ -1146,11 +1165,13 @@
       <c r="AD5" s="10">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="AE5" s="7">
-        <v>1215</v>
-      </c>
-      <c r="AF5" s="7">
-        <v>1156.5999999999999</v>
+      <c r="AE5" s="12">
+        <f>1215*0.935</f>
+        <v>1136.0250000000001</v>
+      </c>
+      <c r="AF5" s="12">
+        <f>1156.6*0.935</f>
+        <v>1081.421</v>
       </c>
       <c r="AG5" s="7">
         <v>0</v>
@@ -1158,11 +1179,13 @@
       <c r="AH5" s="7">
         <v>99999</v>
       </c>
-      <c r="AI5" s="7">
-        <v>1872</v>
-      </c>
-      <c r="AJ5" s="7">
-        <v>1182</v>
+      <c r="AI5" s="12">
+        <f>1872*0.935</f>
+        <v>1750.3200000000002</v>
+      </c>
+      <c r="AJ5" s="12">
+        <f>1182*0.935</f>
+        <v>1105.17</v>
       </c>
       <c r="AK5" s="7">
         <v>0</v>
@@ -1263,11 +1286,13 @@
       <c r="AD6" s="10">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AE6" s="7">
-        <v>1253</v>
-      </c>
-      <c r="AF6" s="7">
-        <v>1155</v>
+      <c r="AE6" s="12">
+        <f>1253*0.935</f>
+        <v>1171.5550000000001</v>
+      </c>
+      <c r="AF6" s="12">
+        <f>1155*0.935</f>
+        <v>1079.925</v>
       </c>
       <c r="AG6" s="7">
         <v>0</v>
@@ -1275,11 +1300,13 @@
       <c r="AH6" s="7">
         <v>99999</v>
       </c>
-      <c r="AI6" s="7">
-        <v>1872</v>
-      </c>
-      <c r="AJ6" s="7">
-        <v>1182</v>
+      <c r="AI6" s="12">
+        <f>1872*0.935</f>
+        <v>1750.3200000000002</v>
+      </c>
+      <c r="AJ6" s="12">
+        <f>1182*0.935</f>
+        <v>1105.17</v>
       </c>
       <c r="AK6" s="7">
         <v>0</v>

--- a/data/Aradas/archetypes/pop_archetypes_citizen.xlsx
+++ b/data/Aradas/archetypes/pop_archetypes_citizen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s3\Aradas\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s4\Aradas\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45890048-4892-4F2C-B0EA-B64B4F03AF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55873944-0641-4817-B727-850B78D1EADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,7 +558,7 @@
   <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="184" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AF11" sqref="AF11"/>
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,10 +690,10 @@
       <c r="AF1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="12" t="s">
         <v>46</v>
       </c>
       <c r="AI1" s="12" t="s">
@@ -702,10 +702,10 @@
       <c r="AJ1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="12" t="s">
         <v>48</v>
       </c>
     </row>
@@ -803,31 +803,31 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AE2" s="12">
-        <f>1215*0.935</f>
-        <v>1136.0250000000001</v>
+        <f>1215*0.87</f>
+        <v>1057.05</v>
       </c>
       <c r="AF2" s="12">
-        <f>1156.6*0.935</f>
-        <v>1081.421</v>
-      </c>
-      <c r="AG2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="7">
+        <f>1156.6*0.87</f>
+        <v>1006.242</v>
+      </c>
+      <c r="AG2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="12">
         <v>99999</v>
       </c>
       <c r="AI2" s="12">
-        <f>1872*0.935</f>
-        <v>1750.3200000000002</v>
+        <f>1872*0.87</f>
+        <v>1628.64</v>
       </c>
       <c r="AJ2" s="12">
-        <f>1182*0.935</f>
-        <v>1105.17</v>
-      </c>
-      <c r="AK2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="7">
+        <f>1182*0.87</f>
+        <v>1028.3399999999999</v>
+      </c>
+      <c r="AK2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="12">
         <v>99999</v>
       </c>
     </row>
@@ -925,31 +925,31 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="AE3" s="12">
-        <f>1215*0.935</f>
-        <v>1136.0250000000001</v>
+        <f>1215*0.87</f>
+        <v>1057.05</v>
       </c>
       <c r="AF3" s="12">
-        <f>1156.6*0.935</f>
-        <v>1081.421</v>
-      </c>
-      <c r="AG3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="7">
+        <f>1156.6*0.87</f>
+        <v>1006.242</v>
+      </c>
+      <c r="AG3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="12">
         <v>99999</v>
       </c>
       <c r="AI3" s="12">
-        <f>1872*0.935</f>
-        <v>1750.3200000000002</v>
+        <f>1872*0.87</f>
+        <v>1628.64</v>
       </c>
       <c r="AJ3" s="12">
-        <f>1182*0.935</f>
-        <v>1105.17</v>
-      </c>
-      <c r="AK3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="7">
+        <f>1182*0.87</f>
+        <v>1028.3399999999999</v>
+      </c>
+      <c r="AK3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="12">
         <v>99999</v>
       </c>
     </row>
@@ -1045,31 +1045,31 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="AE4" s="12">
-        <f>2708*0.935</f>
-        <v>2531.98</v>
+        <f>2708*0.87</f>
+        <v>2355.96</v>
       </c>
       <c r="AF4" s="12">
-        <f>1156.6*0.935</f>
-        <v>1081.421</v>
-      </c>
-      <c r="AG4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="7">
+        <f>1156.6*0.87</f>
+        <v>1006.242</v>
+      </c>
+      <c r="AG4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="12">
         <v>99999</v>
       </c>
       <c r="AI4" s="12">
-        <f>1872*0.935</f>
-        <v>1750.3200000000002</v>
+        <f>1872*0.87</f>
+        <v>1628.64</v>
       </c>
       <c r="AJ4" s="12">
-        <f>1182*0.935</f>
-        <v>1105.17</v>
-      </c>
-      <c r="AK4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="7">
+        <f>1182*0.87</f>
+        <v>1028.3399999999999</v>
+      </c>
+      <c r="AK4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="12">
         <v>99999</v>
       </c>
     </row>
@@ -1166,31 +1166,31 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AE5" s="12">
-        <f>1215*0.935</f>
-        <v>1136.0250000000001</v>
+        <f>1215*0.87</f>
+        <v>1057.05</v>
       </c>
       <c r="AF5" s="12">
-        <f>1156.6*0.935</f>
-        <v>1081.421</v>
-      </c>
-      <c r="AG5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="7">
+        <f>1156.6*0.87</f>
+        <v>1006.242</v>
+      </c>
+      <c r="AG5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="12">
         <v>99999</v>
       </c>
       <c r="AI5" s="12">
-        <f>1872*0.935</f>
-        <v>1750.3200000000002</v>
+        <f>1872*0.87</f>
+        <v>1628.64</v>
       </c>
       <c r="AJ5" s="12">
-        <f>1182*0.935</f>
-        <v>1105.17</v>
-      </c>
-      <c r="AK5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="7">
+        <f>1182*0.87</f>
+        <v>1028.3399999999999</v>
+      </c>
+      <c r="AK5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="12">
         <v>99999</v>
       </c>
     </row>
@@ -1287,31 +1287,31 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="AE6" s="12">
-        <f>1253*0.935</f>
-        <v>1171.5550000000001</v>
+        <f>1253*0.87</f>
+        <v>1090.1099999999999</v>
       </c>
       <c r="AF6" s="12">
-        <f>1155*0.935</f>
-        <v>1079.925</v>
-      </c>
-      <c r="AG6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="7">
+        <f>1155*0.87</f>
+        <v>1004.85</v>
+      </c>
+      <c r="AG6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="12">
         <v>99999</v>
       </c>
       <c r="AI6" s="12">
-        <f>1872*0.935</f>
-        <v>1750.3200000000002</v>
+        <f>1872*0.87</f>
+        <v>1628.64</v>
       </c>
       <c r="AJ6" s="12">
-        <f>1182*0.935</f>
-        <v>1105.17</v>
-      </c>
-      <c r="AK6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="7">
+        <f>1182*0.87</f>
+        <v>1028.3399999999999</v>
+      </c>
+      <c r="AK6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="12">
         <v>99999</v>
       </c>
     </row>
